--- a/RETIRED/MANALO, FERNANDO.xlsx
+++ b/RETIRED/MANALO, FERNANDO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB26F19-9287-40D8-991F-DE329B50E9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -180,9 +181,6 @@
     <t>2022</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>CASUAL</t>
   </si>
   <si>
@@ -267,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -643,6 +641,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -655,20 +662,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,7 +1363,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1406,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1470,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1530,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1596,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1659,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1757,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1816,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1881,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1924,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +1999,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2185,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2251,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2309,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2375,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2431,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2506,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2549,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2615,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2671,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2769,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2832,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2883,7 +2881,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2900,25 +2898,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K131" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2930,25 +2928,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2960,13 +2958,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2975,14 +2973,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3286,7 +3284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3296,7 +3294,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3304,55 +3302,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A70" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="3384" topLeftCell="A63" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3361,36 +3359,36 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3398,7 +3396,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3411,24 +3409,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3472,7 +3470,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>48.332999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3482,12 +3480,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>73.332999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3509,9 +3507,9 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13">
@@ -3529,9 +3527,9 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <v>43132</v>
+        <v>43159</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -3549,9 +3547,9 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <v>43160</v>
+        <v>43190</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
@@ -3569,9 +3567,9 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
@@ -3589,9 +3587,9 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <v>43221</v>
+        <v>43251</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13">
@@ -3609,9 +3607,9 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <v>43252</v>
+        <v>43281</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="13">
@@ -3629,9 +3627,9 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13">
@@ -3649,9 +3647,9 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <v>43313</v>
+        <v>43343</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -3669,9 +3667,9 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -3689,9 +3687,9 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -3709,9 +3707,9 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <v>43405</v>
+        <v>43434</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -3729,12 +3727,12 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -3753,7 +3751,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3771,9 +3769,9 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -3791,9 +3789,9 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>43497</v>
+        <v>43524</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -3811,9 +3809,9 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <v>43525</v>
+        <v>43555</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
@@ -3831,9 +3829,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -3851,9 +3849,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>43586</v>
+        <v>43616</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -3871,9 +3869,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>43617</v>
+        <v>43646</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -3891,9 +3889,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -3911,9 +3909,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>43678</v>
+        <v>43708</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -3931,9 +3929,9 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>43709</v>
+        <v>43738</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -3951,9 +3949,9 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13">
@@ -3971,9 +3969,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>43770</v>
+        <v>43799</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -3991,12 +3989,12 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>43800</v>
+        <v>43830</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -4015,7 +4013,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4033,9 +4031,9 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -4053,9 +4051,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>43862</v>
+        <v>43890</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -4073,9 +4071,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -4093,9 +4091,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -4113,9 +4111,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>43952</v>
+        <v>43982</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4133,9 +4131,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>43983</v>
+        <v>44012</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -4153,9 +4151,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -4173,9 +4171,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -4193,9 +4191,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -4213,9 +4211,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -4233,9 +4231,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>44136</v>
+        <v>44165</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -4253,12 +4251,12 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -4277,7 +4275,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4295,9 +4293,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -4315,9 +4313,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>44228</v>
+        <v>44255</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -4335,9 +4333,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>44256</v>
+        <v>44286</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -4355,9 +4353,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4375,9 +4373,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>44317</v>
+        <v>44347</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -4395,9 +4393,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>44348</v>
+        <v>44377</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -4415,9 +4413,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4435,9 +4433,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>44409</v>
+        <v>44439</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4455,9 +4453,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>44440</v>
+        <v>44469</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4475,9 +4473,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4495,9 +4493,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>44501</v>
+        <v>44530</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4515,12 +4513,12 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>44531</v>
+        <v>44561</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
@@ -4539,7 +4537,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4557,9 +4555,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4577,9 +4575,9 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>44593</v>
+        <v>44620</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -4597,9 +4595,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>44621</v>
+        <v>44651</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4617,9 +4615,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4637,9 +4635,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>44682</v>
+        <v>44712</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4657,9 +4655,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>44713</v>
+        <v>44742</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4677,9 +4675,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4697,9 +4695,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>44774</v>
+        <v>44804</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4717,9 +4715,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>44805</v>
+        <v>44834</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4737,9 +4735,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -4757,54 +4755,48 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B73" s="20"/>
+        <v>44884</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D73" s="39"/>
+        <v>0.83300000000000018</v>
+      </c>
+      <c r="D73" s="39">
+        <v>5</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D74" s="39">
-        <v>5</v>
-      </c>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="40"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
-        <v>47</v>
-      </c>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4819,27 +4811,23 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>44927</v>
-      </c>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40"/>
       <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4855,7 +4843,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4871,7 +4859,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4887,7 +4875,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4903,7 +4891,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4919,7 +4907,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4935,7 +4923,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4951,7 +4939,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4967,7 +4955,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4983,7 +4971,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4999,7 +4987,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5015,7 +5003,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5031,7 +5019,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5047,7 +5035,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5063,7 +5051,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5079,7 +5067,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5095,7 +5083,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5111,7 +5099,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5127,7 +5115,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5143,7 +5131,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5159,7 +5147,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5175,7 +5163,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5191,7 +5179,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5207,7 +5195,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5223,7 +5211,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5239,7 +5227,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5255,7 +5243,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5271,7 +5259,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5287,7 +5275,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5303,7 +5291,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5319,7 +5307,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5335,7 +5323,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5351,7 +5339,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5367,7 +5355,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5383,7 +5371,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5399,7 +5387,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5415,7 +5403,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5431,7 +5419,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5447,7 +5435,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5463,7 +5451,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5479,7 +5467,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5495,7 +5483,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5511,7 +5499,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5527,7 +5515,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5543,7 +5531,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5559,7 +5547,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5575,7 +5563,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5591,7 +5579,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5607,7 +5595,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5623,7 +5611,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5639,7 +5627,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5655,7 +5643,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5671,7 +5659,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5687,7 +5675,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5703,89 +5691,41 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="39"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="39"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5808,34 +5748,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="5532" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5848,16 +5788,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5869,19 +5809,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5893,19 +5833,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5913,7 +5853,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5926,24 +5866,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5978,7 +5918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6002,7 +5942,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6024,12 +5964,12 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
@@ -6045,13 +5985,13 @@
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="39">
@@ -6067,15 +6007,15 @@
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43221</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39"/>
@@ -6091,13 +6031,13 @@
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
@@ -6114,12 +6054,12 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43282</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39">
@@ -6135,15 +6075,15 @@
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43435</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="43">
@@ -6159,10 +6099,10 @@
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -6180,12 +6120,12 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43466</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39">
@@ -6202,12 +6142,12 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43678</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
@@ -6223,13 +6163,13 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39">
@@ -6245,10 +6185,10 @@
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>44</v>
       </c>
@@ -6266,12 +6206,12 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44044</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39">
@@ -6287,15 +6227,15 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44075</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39">
@@ -6311,13 +6251,13 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39">
@@ -6333,15 +6273,15 @@
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44105</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39">
@@ -6357,13 +6297,13 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -6379,13 +6319,13 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39">
@@ -6401,10 +6341,10 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6420,7 +6360,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6436,7 +6376,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6452,7 +6392,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6468,7 +6408,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6484,7 +6424,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6500,7 +6440,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6516,7 +6456,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6532,7 +6472,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6548,7 +6488,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6564,7 +6504,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6580,7 +6520,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6596,7 +6536,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6612,7 +6552,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6628,7 +6568,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6644,7 +6584,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6660,7 +6600,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6676,7 +6616,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6692,7 +6632,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6708,7 +6648,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6724,7 +6664,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6740,7 +6680,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6756,7 +6696,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6772,7 +6712,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6788,7 +6728,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6804,7 +6744,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6820,7 +6760,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6836,7 +6776,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6852,7 +6792,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6868,7 +6808,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6884,7 +6824,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6900,7 +6840,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6916,7 +6856,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6932,7 +6872,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6948,7 +6888,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6964,7 +6904,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6980,7 +6920,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6996,7 +6936,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7012,7 +6952,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7028,7 +6968,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7044,7 +6984,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7060,7 +7000,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7076,7 +7016,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7092,7 +7032,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7108,7 +7048,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7124,7 +7064,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7140,7 +7080,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7156,7 +7096,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7172,7 +7112,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7188,7 +7128,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7204,7 +7144,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7220,7 +7160,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7236,7 +7176,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7252,7 +7192,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7268,7 +7208,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7284,7 +7224,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7300,7 +7240,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7316,7 +7256,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7332,7 +7272,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7348,7 +7288,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7364,7 +7304,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7380,7 +7320,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7396,7 +7336,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7412,7 +7352,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7428,7 +7368,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7444,7 +7384,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7460,7 +7400,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7476,7 +7416,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7492,7 +7432,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7508,7 +7448,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7524,7 +7464,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7540,7 +7480,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7556,7 +7496,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7572,7 +7512,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7588,7 +7528,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7604,7 +7544,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7620,7 +7560,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7636,7 +7576,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7652,7 +7592,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7668,7 +7608,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7684,7 +7624,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7700,7 +7640,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7716,7 +7656,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7732,7 +7672,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7748,7 +7688,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7764,7 +7704,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7780,7 +7720,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7796,7 +7736,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7812,7 +7752,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7828,7 +7768,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7844,7 +7784,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7860,7 +7800,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7876,7 +7816,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7892,7 +7832,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7908,7 +7848,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7924,7 +7864,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7940,7 +7880,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7956,7 +7896,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7972,7 +7912,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7988,7 +7928,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8004,7 +7944,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8020,7 +7960,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8036,7 +7976,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8067,10 +8007,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8093,29 +8033,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8128,7 +8068,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8157,7 +8097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>182.26499999999999</v>
       </c>
@@ -8181,17 +8121,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8212,7 +8152,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8239,7 +8179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8265,7 +8205,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8291,7 +8231,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8317,7 +8257,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8343,7 +8283,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8369,7 +8309,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8395,7 +8335,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8421,7 +8361,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8441,7 +8381,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8461,7 +8401,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8481,7 +8421,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8502,7 +8442,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8523,7 +8463,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8544,7 +8484,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8565,7 +8505,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8586,7 +8526,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8607,7 +8547,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8628,7 +8568,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8649,7 +8589,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8670,7 +8610,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8691,7 +8631,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8712,7 +8652,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8733,7 +8673,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8754,7 +8694,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8775,7 +8715,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8796,7 +8736,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8817,7 +8757,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8838,7 +8778,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8859,7 +8799,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8880,7 +8820,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8901,7 +8841,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8910,7 +8850,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8919,7 +8859,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8928,7 +8868,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8937,7 +8877,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8946,7 +8886,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8955,7 +8895,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8964,7 +8904,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8973,7 +8913,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8982,7 +8922,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8991,7 +8931,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9000,7 +8940,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9009,7 +8949,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9018,7 +8958,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9027,7 +8967,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9036,7 +8976,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9045,7 +8985,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9054,7 +8994,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9063,7 +9003,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9072,7 +9012,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9081,7 +9021,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9090,7 +9030,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9099,7 +9039,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9108,7 +9048,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9117,7 +9057,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9126,7 +9066,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9135,7 +9075,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9144,7 +9084,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9153,7 +9093,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9162,7 +9102,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
